--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>34.682839</v>
+        <v>0.045282</v>
       </c>
       <c r="N2">
-        <v>104.048517</v>
+        <v>0.135846</v>
       </c>
       <c r="O2">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P2">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q2">
-        <v>5203.654686107662</v>
+        <v>7.694120780274</v>
       </c>
       <c r="R2">
-        <v>46832.89217496896</v>
+        <v>69.247087022466</v>
       </c>
       <c r="S2">
-        <v>0.4119262443943864</v>
+        <v>0.0005614025669727329</v>
       </c>
       <c r="T2">
-        <v>0.4119262443943863</v>
+        <v>0.000561402566972733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2799113333333333</v>
+        <v>34.682839</v>
       </c>
       <c r="N3">
-        <v>0.839734</v>
+        <v>104.048517</v>
       </c>
       <c r="O3">
-        <v>0.008005987248276263</v>
+        <v>0.9681988800594137</v>
       </c>
       <c r="P3">
-        <v>0.008005987248276263</v>
+        <v>0.9681988800594138</v>
       </c>
       <c r="Q3">
-        <v>41.99661744514756</v>
+        <v>5893.157375310224</v>
       </c>
       <c r="R3">
-        <v>377.9695570063279</v>
+        <v>53038.41637779201</v>
       </c>
       <c r="S3">
-        <v>0.00332449210122116</v>
+        <v>0.4299950277042095</v>
       </c>
       <c r="T3">
-        <v>0.00332449210122116</v>
+        <v>0.4299950277042096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.382243</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>205.146729</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>34.682839</v>
+        <v>1.093898333333333</v>
       </c>
       <c r="N4">
-        <v>104.048517</v>
+        <v>3.281695</v>
       </c>
       <c r="O4">
-        <v>0.9919940127517238</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="P4">
-        <v>0.9919940127517238</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="Q4">
-        <v>2371.690324427877</v>
+        <v>185.8704539995384</v>
       </c>
       <c r="R4">
-        <v>21345.21291985089</v>
+        <v>1672.834085995845</v>
       </c>
       <c r="S4">
-        <v>0.1877452573508192</v>
+        <v>0.01356206290226862</v>
       </c>
       <c r="T4">
-        <v>0.1877452573508191</v>
+        <v>0.01356206290226862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2799113333333333</v>
+        <v>0.045282</v>
       </c>
       <c r="N5">
-        <v>0.839734</v>
+        <v>0.135846</v>
       </c>
       <c r="O5">
-        <v>0.008005987248276263</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P5">
-        <v>0.008005987248276263</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q5">
-        <v>19.140964814454</v>
+        <v>3.096484727526</v>
       </c>
       <c r="R5">
-        <v>172.268683330086</v>
+        <v>27.868362547734</v>
       </c>
       <c r="S5">
-        <v>0.001515216943805482</v>
+        <v>0.0002259354283964143</v>
       </c>
       <c r="T5">
-        <v>0.001515216943805482</v>
+        <v>0.0002259354283964144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,27 +809,27 @@
         <v>104.048517</v>
       </c>
       <c r="O6">
-        <v>0.9919940127517238</v>
+        <v>0.9681988800594137</v>
       </c>
       <c r="P6">
-        <v>0.9919940127517238</v>
+        <v>0.9681988800594138</v>
       </c>
       <c r="Q6">
-        <v>1323.42568959166</v>
+        <v>2371.690324427877</v>
       </c>
       <c r="R6">
-        <v>11910.83120632494</v>
+        <v>21345.21291985089</v>
       </c>
       <c r="S6">
-        <v>0.104763633817585</v>
+        <v>0.1730507064058316</v>
       </c>
       <c r="T6">
-        <v>0.104763633817585</v>
+        <v>0.1730507064058316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2799113333333333</v>
+        <v>1.093898333333333</v>
       </c>
       <c r="N7">
-        <v>0.839734</v>
+        <v>3.281695</v>
       </c>
       <c r="O7">
-        <v>0.008005987248276263</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="P7">
-        <v>0.008005987248276263</v>
+        <v>0.03053703709872749</v>
       </c>
       <c r="Q7">
-        <v>10.68083986265333</v>
+        <v>74.803221647295</v>
       </c>
       <c r="R7">
-        <v>96.12755876388</v>
+        <v>673.228994825655</v>
       </c>
       <c r="S7">
-        <v>0.0008455054220539821</v>
+        <v>0.00545802721972948</v>
       </c>
       <c r="T7">
-        <v>0.000845505422053982</v>
+        <v>0.00545802721972948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>104.737245</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H8">
-        <v>314.211735</v>
+        <v>159.823902</v>
       </c>
       <c r="I8">
-        <v>0.289879649970129</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J8">
-        <v>0.2898796499701289</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>34.682839</v>
+        <v>0.045282</v>
       </c>
       <c r="N8">
-        <v>104.048517</v>
+        <v>0.135846</v>
       </c>
       <c r="O8">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858775</v>
       </c>
       <c r="P8">
-        <v>0.9919940127517238</v>
+        <v>0.001264082841858776</v>
       </c>
       <c r="Q8">
-        <v>3632.585005638556</v>
+        <v>2.412381976787999</v>
       </c>
       <c r="R8">
-        <v>32693.265050747</v>
+        <v>21.711437791092</v>
       </c>
       <c r="S8">
-        <v>0.2875588771889334</v>
+        <v>0.0001760197783429271</v>
       </c>
       <c r="T8">
-        <v>0.2875588771889333</v>
+        <v>0.0001760197783429271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H9">
+        <v>159.823902</v>
+      </c>
+      <c r="I9">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J9">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.682839</v>
+      </c>
+      <c r="N9">
+        <v>104.048517</v>
+      </c>
+      <c r="O9">
+        <v>0.9681988800594137</v>
+      </c>
+      <c r="P9">
+        <v>0.9681988800594138</v>
+      </c>
+      <c r="Q9">
+        <v>1847.715553805926</v>
+      </c>
+      <c r="R9">
+        <v>16629.43998425333</v>
+      </c>
+      <c r="S9">
+        <v>0.1348188161539558</v>
+      </c>
+      <c r="T9">
+        <v>0.1348188161539559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>104.737245</v>
-      </c>
-      <c r="H9">
-        <v>314.211735</v>
-      </c>
-      <c r="I9">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J9">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H10">
+        <v>159.823902</v>
+      </c>
+      <c r="I10">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J10">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M9">
-        <v>0.2799113333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.839734</v>
-      </c>
-      <c r="O9">
-        <v>0.008005987248276263</v>
-      </c>
-      <c r="P9">
-        <v>0.008005987248276263</v>
-      </c>
-      <c r="Q9">
-        <v>29.31714189761001</v>
-      </c>
-      <c r="R9">
-        <v>263.85427707849</v>
-      </c>
-      <c r="S9">
-        <v>0.002320772781195639</v>
-      </c>
-      <c r="T9">
-        <v>0.002320772781195639</v>
+      <c r="M10">
+        <v>1.093898333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.281695</v>
+      </c>
+      <c r="O10">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="P10">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="Q10">
+        <v>58.27703334154333</v>
+      </c>
+      <c r="R10">
+        <v>524.4933000738899</v>
+      </c>
+      <c r="S10">
+        <v>0.004252191647078987</v>
+      </c>
+      <c r="T10">
+        <v>0.004252191647078988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H11">
+        <v>273.054848</v>
+      </c>
+      <c r="I11">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J11">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.045282</v>
+      </c>
+      <c r="N11">
+        <v>0.135846</v>
+      </c>
+      <c r="O11">
+        <v>0.001264082841858775</v>
+      </c>
+      <c r="P11">
+        <v>0.001264082841858776</v>
+      </c>
+      <c r="Q11">
+        <v>4.121489875711999</v>
+      </c>
+      <c r="R11">
+        <v>37.093408881408</v>
+      </c>
+      <c r="S11">
+        <v>0.000300725068146701</v>
+      </c>
+      <c r="T11">
+        <v>0.000300725068146701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H12">
+        <v>273.054848</v>
+      </c>
+      <c r="I12">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J12">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>34.682839</v>
+      </c>
+      <c r="N12">
+        <v>104.048517</v>
+      </c>
+      <c r="O12">
+        <v>0.9681988800594137</v>
+      </c>
+      <c r="P12">
+        <v>0.9681988800594138</v>
+      </c>
+      <c r="Q12">
+        <v>3156.772443784491</v>
+      </c>
+      <c r="R12">
+        <v>28410.95199406042</v>
+      </c>
+      <c r="S12">
+        <v>0.2303343297954167</v>
+      </c>
+      <c r="T12">
+        <v>0.2303343297954167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H13">
+        <v>273.054848</v>
+      </c>
+      <c r="I13">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J13">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.093898333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.281695</v>
+      </c>
+      <c r="O13">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="P13">
+        <v>0.03053703709872749</v>
+      </c>
+      <c r="Q13">
+        <v>99.56474771192889</v>
+      </c>
+      <c r="R13">
+        <v>896.08272940736</v>
+      </c>
+      <c r="S13">
+        <v>0.007264755329650398</v>
+      </c>
+      <c r="T13">
+        <v>0.007264755329650398</v>
       </c>
     </row>
   </sheetData>
